--- a/data/trans_camb/P16B11-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B11-Clase-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,97</t>
+          <t>0,0; 12,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,3</t>
+          <t>0,0; 13,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,34</t>
+          <t>0,0; 19,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,01</t>
+          <t>0,0; 19,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 11,87</t>
+          <t>1,2; 11,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 11,38</t>
+          <t>1,17; 11,37</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,6</t>
+          <t>0,0; 14,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,03</t>
+          <t>0,0; 15,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,45</t>
+          <t>0,0; 24,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,47</t>
+          <t>0,0; 24,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 13,47</t>
+          <t>1,22; 12,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 12,84</t>
+          <t>1,19; 12,83</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,32</t>
+          <t>0,0; 12,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,54</t>
+          <t>0,0; 11,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -810,17 +810,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 0,0</t>
+          <t>-16,53; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,72</t>
+          <t>0,0; 7,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 6,15</t>
+          <t>-2,36; 6,53</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,77</t>
+          <t>0,0; 14,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,05</t>
+          <t>0,0; 12,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -886,17 +886,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 0,0</t>
+          <t>-16,53; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,36</t>
+          <t>0,0; 8,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 6,63</t>
+          <t>-2,3; 7,14</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,69</t>
+          <t>0,0; 10,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 12,18</t>
+          <t>1,31; 11,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,6</t>
+          <t>0,0; 7,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 8,66</t>
+          <t>0,96; 8,78</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,23</t>
+          <t>0,0; 12,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,34; 13,87</t>
+          <t>1,32; 12,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,23</t>
+          <t>0,0; 8,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,96; 9,48</t>
+          <t>0,97; 9,62</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,81</t>
+          <t>0,41; 4,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,78</t>
+          <t>0,0; 3,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 7,67</t>
+          <t>-1,45; 7,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,62</t>
+          <t>1,0; 10,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,92</t>
+          <t>0,52; 3,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,35</t>
+          <t>0,99; 4,18</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,96</t>
+          <t>0,41; 4,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,93</t>
+          <t>0,0; 3,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 8,47</t>
+          <t>-1,46; 8,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,01; 10,64</t>
+          <t>1,01; 11,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,08</t>
+          <t>0,54; 3,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,55</t>
+          <t>0,99; 4,36</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 0,0</t>
+          <t>-3,26; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,0</t>
+          <t>-1,86; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 0,0</t>
+          <t>-3,26; 0,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,0</t>
+          <t>-1,86; 0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,1; 3,46</t>
+          <t>0,1; 3,5</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 3,29</t>
+          <t>-0,08; 3,26</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,09; 3,48</t>
+          <t>0,12; 3,23</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,18</t>
+          <t>-0,18; 3,32</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,11; 3,61</t>
+          <t>0,11; 3,64</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 3,41</t>
+          <t>-0,08; 3,38</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,09; 3,6</t>
+          <t>0,13; 3,35</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,29</t>
+          <t>-0,18; 3,44</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,72</t>
+          <t>0,9; 3,84</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,23</t>
+          <t>1,2; 4,26</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,91</t>
+          <t>0,5; 3,06</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,97</t>
+          <t>0,58; 3,07</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,83</t>
+          <t>0,88; 2,81</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,98</t>
+          <t>1,07; 2,88</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,86</t>
+          <t>0,91; 4,0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,42</t>
+          <t>1,22; 4,45</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,99</t>
+          <t>0,5; 3,15</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,07</t>
+          <t>0,59; 3,18</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,91</t>
+          <t>0,89; 2,9</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,08</t>
+          <t>1,09; 2,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B11-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B11-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
